--- a/src/Input/Sample.xlsx
+++ b/src/Input/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">lalaki nanghingi umano p250,000.00 dati ka-textmate babae kapalit pagpapakalat sensitibong larawan huli dinakip awtoridad iloilo. ulat enrico surita jr gma-iloilo, sinabing dinakip operatiba national bureau investigation 52-anyos lalaking suspek isinagawang entrapment operation iloilo airport. reklamo 33-anyos biktimang babae, limang taon nakalilipas ka-textmate ka- suspek personal nagkita. palitan umano voice video call paraan komunikasyon. pag-amin biktima, pagkakataon ipinakita suspek maselang bahagi katawan video call. laking gulat umano hingan suspek p250,000 kapalit pananatiling pribado sensitibo larawan. dito, dumulog biktima nbi madakip suspek. inamin lalaki nagkaroon relasyon babae itinanggi hiningan pera. mahaharap suspek reklamong robbery-extortion, violence women, violation cybercrime prevention act. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">igagalang daw vice president jejomar binay anumang pasya dating pangulo ngayo'y manila mayor joseph estrada sakaling suportahan kandidatura senador grace poe 2016 nagpasya huli tumakbo darating halalan. paliwanag binay tanungin media posibleng pag-endorso estrada poe. poe anak namayapang aktor fernando poe jr, matalik kaibigan estrada. magkasama oposisyong united nationalist alliance binay estrada. samantala, hinihikayat partido administrasyong liberal party poe tumakbo grupo sakaling magpasya kumandidato mataas posisyon 2016. kamakailan inamin pangulong benigno aquino iii nag-usap poe 2016 elections. kinumpirma senador. nakapagpapasya poe tatakbo mataas posisyon darating halalan. nitong biyernes, inihayag estrada hangarin oposisyon tumakbo poe masuportahan niya. anang alkalde. inihayag binay ikinukonsidera poe bise presidente partido oposisyon. direktang sinagot binay posibilidad sumama administrasyon poe. paliwanag niya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibibigay umano kumpanya nasunog pabrika tsinelas valenzuela city p8,000 sahod manggagawang nakaligtas nasawi trahediya kumitil 72 buhay miyerkules. ulat gma news tv's nitong sabado, umano atty. renato paraiso, abogado kentex manufacturing corporation, nabanggit halaga sahod umano manggagawa unang bahagi buwan. ibibigay naulilang pamilya nabanggit sahod nasawing manggagawa. ulat, ibibigay sahod mataas umano unang napaulat p5,500. umano tulong pinansiyal ipinangakong ipagkakaloob kumpanya nakaligtas pamilya nasawi. gayunman, ulat dismayado umano valenzuela city mayor rex gatchalian paraan pagtugon kumpanya pananagutan biktima. daw sapat nabanggit halaga ibibigay. nitong biyernes, leody de guzman, presidente bukluran manggagawang pilipino, kentex managot nangyaring trahediya valenzuela. tanong de guzman. naunang ulat agence france-presse, umano labor employment secretary rosalinda baldoz, trahediya valenzuela nagpakita ginagawang pang-aabuso ilang kumpanya manggagawa. anang kalihim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inilabas judge nelson tribiana nueva ecija regional trial court arrest warrant recruiter umano mary jane veloso ma. cristina sergio julius lacanilao. veloso ofw death row indonesia matapos droga nahanap gamit yogyakarta airport bansang 2010. sergio, sinasabing kaugnayan west african drug syndicate, itinuro veloso nag-recruit umano bilang ofw kagagawan lahat. 14 inilabas korte arrest warrant nakakulong nbi detention center dalawa. ngayong lunes, inilabas selda dinala anti-human trafficking division national bureau investigation sinilbihan arrest warrant. ipinaalam karapatan. isinagawa booking process dalawa kinunan finger prints mugshots tumangging magsalita lacanilao. sergio, sinabing preliminary investigation daw magsasalita. arrest warrant daw kina sergio lacanilao nag-ugat kaso veloso indonesia, hail reklamo biktima illegal recruitment nila. raw complaint illegal recruitment, estafa human trafficking isinampa doj pamilya veloso patuloy dinidinig. czar eric nuqui pinuno nbi ahtrad, paglabas warrant patunay gumagalaw kaso malakas naisampang kaso dalawa. matapos booking process, ibabalik korte nueva ecija warrant dalawa. huwis raw maglalabas commitment order magtatakda makukulong dinidinig kaso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagkakaibigang pinagtibay pagbibisikleta—ganyan siguro puwedeng isalarawan kwento. maalala kailan nagsimula pagkakaibigan, matagal masyado. raffy tima, unang nagkakilala maliit istasyon telebisyon nagtatrabaho, panahon uso maluwag pantalon oversized pantaas, marahil epekto rap culture. ivan mayrina, nakikita field coverage, pamatay nya porma nakabukas pangalawang butones polo. ko, angas dating nito. matangkad sya masyado akin, hinayaan lang--matinding mismatch eh. paglipat gma-7, raffy madalas kasama, lalo work. ivan nakakasama namin. naisip tuloy, mali impression kanya. naa-angasan sya noon. fast forward---ilang taon nakaraan makahiligan triathlon. naiisip naman, kalokohan ginagawa nitong kaibigan ko---langoy, takbo, bisikleta. yan madalas marinig kanila. pala, tawagan namin. yan nakuha namin coverage mindanao. sinabing tawag ilokano, kapampangan taga napa-oo ako, triathlon—sa duathlon . 'di nagtagal, bumigay marupok tuhod, gastado masyado kabataan ko, basketball dito, basketball doon. padyak ngayon. nagkakaharap paboritong tambayan, ibat-iba nakahain kwento, nangyari nakasama kwentuhan bisikleta. ivan ma'am jessica soho ka-banter state nation, topic bisikleta, eh siguradong ubos oras sona ivan kaharap nya. tatlo, ivan pinakamalakas, raffy laging kulelat. dati sumasama chino gaston, proud third ako. eh ayaw yata chino road bike, sige lang, problem kulelat. nasubukan naming mag-200km ride december year. masakit katawan, pakiramdam pagtawid finish line, sulit pagod. nitong nakaraang linggo, sinalihan race subic. 90 km karera, daming matarik akyatan. siempre, simula, dikit-dikit kami. minutes, matanaw. iniwanan kaibigan ko. hirap pumadyak puro paahon nakikita...parang bumubulong tenga mo---tigilan yan, kayang akyatin. picture this: nagpa-panic top floor mataas building, you're gasping air, heart pounding legs explode). pagkaraan lampas tatlong oras, natawid namin finish line, siempre magkakaiba oras. usual ivan nauna, raffy, kulelat. age factor ito: 43 ako, raffy 40 ivan 38. pangarap talaga maiba sequence namin finish line, ok lang. importante matapos karera. kinabukasan, sakit katawan topic namin. raffy masakit braso, masakit hita pwet. ivan, likas malakas bisikleta, sakit katawan namin, kurot kanya. pagkatapos magreklamo body pains, sigurado nagkita-kita kami, race pag-uusapan. pakiramdam matapos karera, lalo tipong halos magkulay puti paningin sobrang hirap pumadjak. pagdating panahon senior citizen kami, bisikleta siguradong topic umpukan. 200-km ride sure 90-km, malabo yan. pero, mabagal, maiksi distansya, sigurado papadyak papadyak kami. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lalaki napatay pamamaril makati city nitong linggo gabi. batay paunang ulat, kinilala bikitma alyas alvin, residente 25th ave. barangay east rembo. residente, bandang alas-diyes gabi bigla makarinig putok baril, kani-kanilang bahay madamay kaguluhang nagaganap. napag-alaman bikitma pala'y pinagbabaril naglalakad kalsada sinundan umano ito'y bahay sana'y humingi tulong. funeral parlor workers carry body shooting victim early monday morning 25th avenue brgy. east rembo, makati city. isay reyes paunang imbestigasyon, apat lalaki raw hinihilang suspek pamamaril. nakakita raw suspek nag-aabang 27th avenue lang. dumaan biktima 25th avenue, raw nakatiyempo suspek. nagtamo nabibilang tama likod biktima. gunman sinasabing kayumanggi, katamtamang tangkad naka-suot puting t-shirt. tinitignan awtoridad kinalaman droga insidente pamamaril. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">natapos isinagawang pagsisiyasat interagency anti-arson task force pinagmulan sunog pabrika tsinelas valenzuela city naganap mayo 13 72 katao nasawi. f/supt. renato marcial, tagapagsalita bureau fire protection, kumpirmadong baga welding tumama kemikal pinagmulan sunog kumitil buhay 72 trabahador. nabanggit bilang nasawi, 69 nakitang magkakasama ikalawang palapag pabrika. raw base isinagawang walkthrough pabrika iatf nitong biyernes tauhan bfp philippine national police. naturang pagsisiyasat, nakuha welding embers welding rod. lumitaw imbestigasyon tumama baga welding ginagawang roll up door pabrika 400 sako blowing agent, mabilis pagkalat apoy. naturang walkthrough, kinumpirma iatf dalawang minuto makaraang tumama baga welding, sumabog kemikal. gayunman, marcial, etiketa sako kemikal unang tinukoy azodi-carbonamide, muna makumpirma chemical analysis. lumabas pagsisiyasat nakalalasong usok nilikha nasunog kemikal naipit ikalawang palapag pabrika 69 manggagawang nasawi. natapos imbestigasyon, marcial, puwedeng i-turnover pamunuan kentex manufacturing gusali. daw munang tapusin final report iatf inaasahang makukompleto huling linggo mayo. ito'y week time frame naunang department interior local government secretary mar roxas, nakasasakop iatf. samantala, nakumpirmang pagwe-welding nagsimula sunog, masagot bfp legal pananagutan sumukong welder naturang pabrika. marcial, posibilidad testigo welder makatutulong testimonya mabigyan linaw katanungan pagkukulang pananagutan nangyaring trahediya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mayo buwan piyesta. akala nakuha tradisyon lubusan espanyol, nagkakamali tayo. 1. katutubo piyesta unang tingin, piyesta nakuha espanyol bilang pasasalamat araw santong katoliko. malalimang pagtingin, inangkin paghahalo sinauna nating ritwal ninunong anito bilang pasasalamat masaganang ani. bansa, popular santo patron magsasaka san isidro labrador, ordinaryong magsasaka taga madrid. kilala bilang mapagkawanggawa. nagpakain mahihirap namatay 15, 1130. lalawigan tayabas quezon, panahon pagdating espanyol, dinadala taga-lucban pinakamagagandang ani simbahan binebendisyunan pari. pagpapatuloy tradisyon ninuno pag-aalay ani bathala anito. pagsisimula kilalang pista lukban, quezon, pahiyas. alamat, matagpuan daw larawan mahal birhen dolores lawa bae pakil, laguna, raw mabuhat madala simbahan sinayaw kababaihan sayaw ninuno. milagro daw nabuhat taumbayan larawan naman, prusisyon tuwing mayo 12 hinaluan sinaunang sayaw katutubo: niyuyugyog todo mahal birhen turumba. 2. flores de mayo santacruzan napagkakamalan tawagin santacruzan flores de mayo. kailangang liwanagin magkaiba flores de mayo santacruzan. magkaiba pakay ito. flores de mayo pagbibigay-pugay ina hesukristo maria. sinimulan 1854 iproklama dogma santo papa maria ipinaglihi santa ana kasalanang mana - immaculada concepcion. kaakibat nito, 1867, isinalin padre mariano sevilla bulacan debosyunal bilang buwan ito, nag-aalay bulaklak panalangin maria taumbayan simbahan. huling bahagi flores de mayo santacruzan. 3. magkaedad reyna elena konstantino santacruzan prusisyon ginagawa piyesta. estatwa aktwal tao kumakatawan banal babae bibliya judith esther, katangian maria reina justicia divina pastora, kina reyna elena konstantino. santacruzan ginugunita pagkahanap diumano krus pinagpakuan mahal panginoong hesukristo kapistahan mayo 3. kuwento, paganong anak emperatriz elena emperador konstantino minsang makikipaglaban, raw tanda santa cruz kinamatayan kristo kalangitan. narinig daw bilin —sa sagisag ito, manakop! iniutos konstantino ilagay krus kalasag hukbo. napagwagian digmaang hinarap. totoo kuwento hindi, ginamit krus iisang diyos kristiyano, pag-isahin imperyo romano. iisa diyos, iisa pinuno. emperatriz elena nagpatayo simbahan roma, konstantinopla, palestina. 326 ad, 75 years old lola magperigrinasyon herusalem. doon, ipinahukay golgotha kalbaryo patayuan simbahan kilala tawag church holy sepulchre. alamat, tatlong krus nakita. malaman saang krus namatay kristo, pinahiga maysakit alalay krus. gumaling maysakit, ipinalagay krus kristo. hinati-hati raw krus pagdating panahon 2005, pinaniniwalaang bahagi tunay krus kristo napadpad bundok san jose, tarlac nabibista kapatid nating katoliko monasterio de tarlac. santacruzan kilala bilang parada pinakamagagandang binata dalaga bayan, man, parada imbitadong sikat artista. bagama’t masamang gawing fashion show tradisyon ito, kultura nagbabago umaayon agos panahon, mawala tunay nitong konteksyo relihiyon kasaysayan. ginawa nating fashion show santacruzan, nakikita rumarampa magaganda batang reyna elena kaedad konsorte konstantino. unang panahon, batang maliit mag-ina mag-asawa elena konstantino. mainam pa, ipagdiwang lola, gawin reyna elena tunay reyna elena! ilan, piyesta masamang impluwensya tinuruan nitong gumastos marangya pera, mangutang mairaos ito. banda, kapistahan salamin makulay mayaman nating kultura. pagsasanib kanluranin katutubong tradisyon, mukha bayan bilang mapagpasalamat mamamayan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iminungkahi pamahalaang aquino senador subukan backchannel diplomacy china maibsan umiinit tensiyon agawan teritoryo west philippine south china sea. pahayag nitong miyerkules, sen. ferdinand marcos jr., gamitin pamahalaan negosyanteng pinoy makipag-usap kapwa negosyante china tumulong pagkumbinsi gobyerno itigil agresibong posisyon pinag-aagawang teritoryo. paliwanag mambabatas. dagdag niya, paggamit backchanneling magiging daan mapanatiling bukas komunikasyon pag-uusap dalawang panig. ani marcos. 2012, inatasan senador antonio trillanes magsagawa backchannel talks china maresolba agawan teritoryo panatag scarborough shoal. iminungkahi marcos malacanang ipatawag chinese ambassador maiparating beijing hangarin bansa maresolba diplomatikong paraan sigalot wps. marcos uminit sitwasyon wps matapos magbigay matigas posisyon gobyerno amerika china kaugnay nabanggit bahagi karagatan. paniwala marcos, makabubuti pilipinas maipit komprontasyon china. anang senador. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lalong uminit tensiyon west philippine south china sea matapos pumalag amerika pagkontrol china karagatan himpapawid bahagi pinag-aagawang teritoryo. giit us, karapatan china kontrolin barko eroplano dumadaan naturang lugar international freedom navigation. prof. clarita carlos department political science university philippines, umano makialam pilipinas away dalawang higanteng bansa china. paliwanag ulat gma news tv's 'balitanghali' nitong martes. carlos, ginagawa plano ipadala japan nuclear-powered aircraft carrier uss ronald reagan tapatan agresibo china. ilang isla ginawa china pinag-aagawang teritoryo ipinagpipilitan mapa nagpapakitang kontrolado halos 90 porsiyento south china sea. nito, umaasa carlos mauuwi digmaan girian china. aniya. nitong lunes, defense secretary voltaire gazmin makikipag-usap secretary defense ashton carter talakayin sitwasyon west philippine sea. kalihim, tatanungin carter posibleng ayuda ibigay pilipinas kaugnay sitwasyon agawan teritoryo. paliwanag gazmin. susunod linggo, bibiyahe pangulong benigno aquino iii three-day visit japan, mayroon hiwalay gusot china agawan teritoryo. inaasahang makatatanggap tulong pilipinas japan mapaigting pagpapatrolya karagatan bansa. paliwanag deputy presidential spokesperson usec. abigail valte, sumasandal tao bansa pilipinas resolbahin problema agawan teritoryo china. hangad umano pamahalaang aquino malutas mapayapang paraan usapin arbitration case inihain pilipinas china united nation. ani valte. dagdag opisyal, pinapahalagahan pamahalaan suportang ibinibigay iba't bansa pilipinas usapin. pahayag niya. nauna nagbabala militanteng grupo bagong alyansang makabayan, makatutulong pilipinas pagkakaroon puwersang militar malutas problema china. pahayag bayan secretary general renato reyes jr. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,7 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -153,6 +181,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -188,6 +233,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,7 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -352,31 +416,49 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
